--- a/2024-10/10月活跃度.xlsx
+++ b/2024-10/10月活跃度.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H:$H</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$H$1:$H$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
   <si>
     <t>姓名</t>
   </si>
@@ -65,39 +66,42 @@
     <t>0.5(积极填表);0.5(按要求改备注); 2(晚自习)</t>
   </si>
   <si>
+    <t>2(晚自习）</t>
+  </si>
+  <si>
+    <t>苏怡玥</t>
+  </si>
+  <si>
+    <t>人工智能23-1</t>
+  </si>
+  <si>
+    <t>部委</t>
+  </si>
+  <si>
+    <t>0.5(积极填表);0.5(按要求改备注)</t>
+  </si>
+  <si>
+    <t>0.5(积极填写问卷)</t>
+  </si>
+  <si>
+    <t>刘世璋</t>
+  </si>
+  <si>
+    <t>副部长</t>
+  </si>
+  <si>
+    <t>刘一坤</t>
+  </si>
+  <si>
+    <t>电子23-1</t>
+  </si>
+  <si>
+    <t>0.5(按要求改备注)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>苏怡玥</t>
-  </si>
-  <si>
-    <t>人工智能23-1</t>
-  </si>
-  <si>
-    <t>部委</t>
-  </si>
-  <si>
-    <t>0.5(积极填表);0.5(按要求改备注)</t>
-  </si>
-  <si>
-    <t>0.5(积极填写问卷)</t>
-  </si>
-  <si>
-    <t>刘世璋</t>
-  </si>
-  <si>
-    <t>副部长</t>
-  </si>
-  <si>
-    <t>刘一坤</t>
-  </si>
-  <si>
-    <t>电子23-1</t>
-  </si>
-  <si>
-    <t>0.5(按要求改备注)</t>
-  </si>
-  <si>
     <t>冯书琴</t>
   </si>
   <si>
@@ -132,6 +136,10 @@
   </si>
   <si>
     <t>网继–24–8</t>
+  </si>
+  <si>
+    <t>0.5(积极填写问卷)
+2(晚自习）</t>
   </si>
   <si>
     <t>郎瑞</t>
@@ -342,7 +350,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +364,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -818,7 +838,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -835,143 +855,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -1021,6 +1047,7 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1316,19 +1343,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="5" max="5" width="20.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.35" customWidth="1"/>
+    <col min="5" max="5" width="42.4814814814815" customWidth="1"/>
+    <col min="6" max="6" width="21.2962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1347,8 +1374,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1367,8 +1395,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1387,8 +1416,9 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1407,8 +1437,9 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1425,18 +1456,19 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1447,56 +1479,59 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1507,16 +1542,17 @@
       <c r="F9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="28.8" spans="1:8">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1524,13 +1560,14 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1542,61 +1579,64 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" ht="28.8" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1607,16 +1647,17 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1627,16 +1668,17 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1647,36 +1689,38 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" ht="28.8" spans="1:8">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1684,19 +1728,20 @@
       <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1707,56 +1752,59 @@
       <c r="F19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1770,33 +1818,33 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" ht="28.8" spans="1:6">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1804,16 +1852,16 @@
       <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="s">
-        <v>16</v>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1825,18 +1873,18 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:6">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1844,39 +1892,39 @@
       <c r="E26" t="s">
         <v>21</v>
       </c>
-      <c r="F26" t="s">
-        <v>16</v>
+      <c r="F26" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" ht="28.8" spans="1:6">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1884,19 +1932,19 @@
       <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" t="s">
-        <v>16</v>
+      <c r="F28" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1905,18 +1953,18 @@
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -1930,13 +1978,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1948,15 +1996,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="28.8" spans="1:6">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1964,19 +2012,19 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F32" t="s">
-        <v>16</v>
+      <c r="F32" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -1985,18 +2033,18 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -2005,18 +2053,18 @@
         <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -2025,24 +2073,24 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
@@ -2050,173 +2098,173 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="28.8" spans="1:6">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" ht="28.8" spans="1:6">
       <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:6">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" ht="28.8" spans="1:6">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" spans="1:6">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" ht="28.8" spans="1:6">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" ht="28.8" spans="1:6">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" ht="28.8" spans="1:6">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
@@ -2224,19 +2272,19 @@
       <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="F45" t="s">
-        <v>16</v>
+      <c r="F45" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -2250,13 +2298,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2270,13 +2318,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
@@ -2285,7 +2333,7 @@
         <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
